--- a/Web/Web.xlsx
+++ b/Web/Web.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Syooian\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C82097-4B17-4988-8F7D-EED56714A349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B874C-89E8-45E2-8DEB-D493DE56518A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{AFE9F456-20AE-41C9-A7A1-E674D4317E13}"/>
   </bookViews>
   <sheets>
-    <sheet name="09" sheetId="1" r:id="rId1"/>
+    <sheet name="09 費氏數列" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -99,7 +102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -111,6 +114,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,15 +435,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CFEBF0-5B9C-4DA6-AEF1-B76F58C8CCBC}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="27.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -447,13 +457,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -464,7 +474,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -478,7 +488,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f>D2+D3</f>
         <v>1</v>
       </c>
@@ -496,8 +506,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D29" si="0">D3+D4</f>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D68" si="0">D3+D4</f>
         <v>2</v>
       </c>
       <c r="F5" t="s">
@@ -514,7 +524,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -532,7 +542,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -547,7 +557,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -559,7 +569,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -568,7 +578,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -577,7 +587,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -586,7 +596,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -595,7 +605,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -604,7 +614,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
@@ -613,7 +623,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
@@ -622,7 +632,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>377</v>
       </c>
@@ -631,7 +641,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
@@ -640,7 +650,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>987</v>
       </c>
@@ -649,7 +659,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>1597</v>
       </c>
@@ -658,7 +668,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>2584</v>
       </c>
@@ -667,7 +677,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>4181</v>
       </c>
@@ -676,7 +686,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>6765</v>
       </c>
@@ -685,7 +695,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>10946</v>
       </c>
@@ -694,7 +704,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>17711</v>
       </c>
@@ -703,7 +713,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>28657</v>
       </c>
@@ -712,7 +722,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>46368</v>
       </c>
@@ -721,7 +731,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>75025</v>
       </c>
@@ -733,7 +743,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>121393</v>
       </c>
@@ -748,7 +758,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>196418</v>
       </c>
@@ -766,6 +776,10 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>317811</v>
+      </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
@@ -777,6 +791,10 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>514229</v>
+      </c>
       <c r="G31" t="s">
         <v>4</v>
       </c>
@@ -784,6 +802,1030 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>832040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>1346269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>2178309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>3524578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>5702887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>9227465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>14930352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>24157817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>39088169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>63245986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>102334155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>165580141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>267914296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>433494437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>701408733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>1134903170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>1836311903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>2971215073</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>4807526976</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>7778742049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="0"/>
+        <v>12586269025</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
+        <v>20365011074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="0"/>
+        <v>32951280099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="0"/>
+        <v>53316291173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="0"/>
+        <v>86267571272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="0"/>
+        <v>139583862445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="0"/>
+        <v>225851433717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="0"/>
+        <v>365435296162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="0"/>
+        <v>591286729879</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="0"/>
+        <v>956722026041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="0"/>
+        <v>1548008755920</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="0"/>
+        <v>2504730781961</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="0"/>
+        <v>4052739537881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="0"/>
+        <v>6557470319842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="0"/>
+        <v>10610209857723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="0"/>
+        <v>17167680177565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="0"/>
+        <v>27777890035288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" ref="D69:D102" si="1">D67+D68</f>
+        <v>44945570212853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="1"/>
+        <v>72723460248141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="1"/>
+        <v>117669030460994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="1"/>
+        <v>190392490709135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="1"/>
+        <v>308061521170129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="1"/>
+        <v>498454011879264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="1"/>
+        <v>806515533049393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="1"/>
+        <v>1304969544928657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="1"/>
+        <v>2111485077978050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="1"/>
+        <v>3416454622906707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="1"/>
+        <v>5527939700884757</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="1"/>
+        <v>8944394323791464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="1"/>
+        <v>1.447233402467622E+16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3416728348467684E+16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="1"/>
+        <v>3.7889062373143904E+16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="1"/>
+        <v>6.1305790721611584E+16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="1"/>
+        <v>9.9194853094755488E+16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6050064381636707E+17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5969549691112256E+17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2019614072748966E+17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="1"/>
+        <v>6.7989163763861222E+17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1000877783661019E+18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="1"/>
+        <v>1.779979416004714E+18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="1"/>
+        <v>2.880067194370816E+18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="1"/>
+        <v>4.6600466103755305E+18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5401138047463465E+18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2200160415121877E+19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9740274219868226E+19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="1"/>
+        <v>3.19404346349901E+19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="1"/>
+        <v>5.1680708854858326E+19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3621143489848426E+19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="D100" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3530185234470676E+20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" si="1"/>
+        <v>2.189229958345552E+20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="D102" s="5">
+        <f t="shared" si="1"/>
+        <v>3.54224848179262E+20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
